--- a/TestData/testdata.xlsx
+++ b/TestData/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium\RobotWorkplace\MiniProject2\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium\RobotWorkplace\SeleniumMiniProject2\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,12 +29,6 @@
     <t>${filelocation}</t>
   </si>
   <si>
-    <t>D:\\Selenium\\RobotWorkplace\\MiniProject2\\TestData\\testinglessthan2mb.pdf</t>
-  </si>
-  <si>
-    <t>D:\\Selenium\\RobotWorkplace\\MiniProject2\\TestData\\jpegnotsupported.png</t>
-  </si>
-  <si>
     <t>${expectedvalue}</t>
   </si>
   <si>
@@ -47,7 +41,13 @@
     <t>Sorry! The file size cannot be more than 2 MB</t>
   </si>
   <si>
-    <t>D:\\Selenium\\RobotWorkplace\\MiniProject2\\TestData\\testingmorethan2mb.pdf</t>
+    <t>D:\\Selenium\\RobotWorkplace\\SeleniumMiniProject2\\TestData\\testingmorethan2mb.pdf</t>
+  </si>
+  <si>
+    <t>D:\\Selenium\\RobotWorkplace\\SeleniumMiniProject2\\TestData\\testinglessthan2mb.pdf</t>
+  </si>
+  <si>
+    <t>D:\\Selenium\\RobotWorkplace\\SeleniumMiniProject2\\TestData\\jpegnotsupported.png</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,31 +425,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
